--- a/保守性_DB.xlsx
+++ b/保守性_DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5726dd6ae77f066/デスクトップ/agile_development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshir\OneDrive\ドキュメント\中島研\agile\quality-digital-twin-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="848" documentId="11_FBFF41A3BEC773933A013C4D0FCF583D8619F29F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56399D4C-1E4D-4BF4-8EA9-150C8FE8E317}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD98B0-82FE-4D42-A4F2-D1C373427279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQuaRE" sheetId="1" r:id="rId1"/>
@@ -20,19 +20,6 @@
     <sheet name="サポート表示" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -211,9 +198,6 @@
   </si>
   <si>
     <t>長所及び短所、利用上の前提条件</t>
-  </si>
-  <si>
-    <t>実現例</t>
   </si>
   <si>
     <t>副特性</t>
@@ -2426,6 +2410,13 @@
   <si>
     <t>テスト実施・停止・再開の自由度をあげるために，テスト再開始性を[目標値]以上にする．</t>
     <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>実現手段</t>
+    <rPh sb="2" eb="4">
+      <t>シュダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2971,9 +2962,9 @@
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2984,7 +2975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2995,7 +2986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3006,7 +2997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3017,7 +3008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3028,7 +3019,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3039,7 +3030,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3050,7 +3041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3061,7 +3052,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3072,7 +3063,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -3083,7 +3074,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3094,7 +3085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -3105,7 +3096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -3116,7 +3107,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -3142,12 +3133,12 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="3" max="3" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3161,7 +3152,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -3169,13 +3160,13 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -3183,13 +3174,13 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3197,13 +3188,13 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>52</v>
       </c>
@@ -3211,13 +3202,13 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3225,7 +3216,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
         <v>37</v>
@@ -3243,24 +3234,24 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.875" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="27.25" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="27.5" customWidth="1"/>
-    <col min="7" max="7" width="35.375" customWidth="1"/>
-    <col min="8" max="8" width="11.375" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="6.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="7" max="7" width="35.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3280,36 +3271,36 @@
         <v>57</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>438</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="B2" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>245</v>
-      </c>
       <c r="E2" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>42</v>
@@ -3318,27 +3309,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>42</v>
@@ -3347,85 +3338,85 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="I4" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="F5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>250</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>251</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>42</v>
@@ -3434,56 +3425,56 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>257</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>258</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>44</v>
@@ -3492,56 +3483,56 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="B10" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>45</v>
@@ -3550,27 +3541,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>45</v>
@@ -3579,27 +3570,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="F12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>272</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>45</v>
@@ -3608,27 +3599,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>45</v>
@@ -3637,56 +3628,56 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>276</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>277</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>46</v>
@@ -3695,27 +3686,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>46</v>
@@ -3724,27 +3715,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>46</v>
@@ -3753,27 +3744,27 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>46</v>
@@ -3782,10 +3773,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
     </row>
   </sheetData>
@@ -3804,247 +3795,247 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="34.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" customWidth="1"/>
+    <col min="3" max="3" width="34.36328125" customWidth="1"/>
+    <col min="4" max="4" width="28.26953125" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="83.25" customWidth="1"/>
+    <col min="6" max="6" width="83.26953125" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>48</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="G2" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>348</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>319</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="H6" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="G8" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>43</v>
@@ -4053,85 +4044,85 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>357</v>
-      </c>
       <c r="G9" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="G10" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>44</v>
@@ -4140,27 +4131,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>44</v>
@@ -4169,27 +4160,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="G13" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>44</v>
@@ -4198,27 +4189,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="14" t="s">
         <v>137</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>138</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>44</v>
@@ -4227,27 +4218,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="E15" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>44</v>
@@ -4256,27 +4247,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>364</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>44</v>
@@ -4285,294 +4276,294 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>151</v>
-      </c>
       <c r="H17" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>157</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I19" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>407</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I21" s="5">
         <v>2</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="E22" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="H22" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I22" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="G23" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H23" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="I23" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I24" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="H25" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I25" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>45</v>
@@ -4581,27 +4572,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>45</v>
@@ -4610,27 +4601,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>184</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>45</v>
@@ -4639,27 +4630,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C29" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>378</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>379</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>45</v>
@@ -4668,27 +4659,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>45</v>
@@ -4697,27 +4688,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D31" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="G31" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>45</v>
@@ -4726,27 +4717,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>45</v>
@@ -4755,207 +4746,207 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="D33" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>386</v>
-      </c>
       <c r="H33" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I33" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="G34" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="H34" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I34" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C35" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>213</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I35" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>373</v>
-      </c>
       <c r="H36" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I36" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>438</v>
-      </c>
       <c r="H37" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I37" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>383</v>
-      </c>
       <c r="H38" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I38" s="5">
         <v>3</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>225</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I39" s="5">
         <v>1</v>
@@ -4986,22 +4977,22 @@
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="13" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" customWidth="1"/>
+    <col min="5" max="13" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D1" s="23"/>
       <c r="E1" s="23"/>
@@ -5009,7 +5000,7 @@
       <c r="G1" s="23"/>
       <c r="H1" s="23"/>
       <c r="I1" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J1" s="25"/>
       <c r="K1" s="25"/>
@@ -5017,13 +5008,13 @@
       <c r="M1" s="25"/>
       <c r="N1" s="25"/>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -5031,7 +5022,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J2" s="24"/>
       <c r="K2" s="24"/>
@@ -5039,53 +5030,53 @@
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>284</v>
-      </c>
       <c r="C3" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>292</v>
-      </c>
       <c r="I3" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>299</v>
-      </c>
       <c r="N3" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B4" s="15" t="str">
         <f>request!B2</f>
@@ -5155,9 +5146,9 @@
         <v>モジュールの汎用化</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B5" s="15" t="str">
         <f>request!B3</f>
@@ -5224,9 +5215,9 @@
         <v>凝集度の向上</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="15" t="str">
         <f>request!B4</f>
@@ -5293,9 +5284,9 @@
         <v>情報隠蔽</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="15" t="str">
         <f>request!B5</f>
@@ -5361,9 +5352,9 @@
         <v>仲介の利用</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="15" t="str">
         <f>request!B6</f>
@@ -5431,9 +5422,9 @@
         <v>結合度の向上</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="15" t="str">
         <f>request!B7</f>
@@ -5497,9 +5488,9 @@
         <v>共通サービスの抽出</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B10" s="15" t="str">
         <f>request!B8</f>
@@ -5556,9 +5547,9 @@
         <v>再利用性</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11" s="15" t="str">
         <f>request!B10</f>
@@ -5615,9 +5606,9 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" s="15" t="str">
         <f>request!B11</f>
@@ -5674,9 +5665,9 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="15" t="str">
         <f>request!B12</f>
@@ -5733,9 +5724,9 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B14" s="15" t="str">
         <f>request!B13</f>
@@ -5792,9 +5783,9 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B15" s="15" t="str">
         <f>request!B14</f>
@@ -5851,9 +5842,9 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B16" s="15" t="str">
         <f>request!B15</f>
@@ -5910,9 +5901,9 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" s="15" t="str">
         <f>request!B16</f>
@@ -5969,9 +5960,9 @@
         <v>解析性</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" s="15" t="str">
         <f>request!B17</f>
@@ -6037,9 +6028,9 @@
         <v>既存インタフェースの維持</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>request!B18</f>
@@ -6096,9 +6087,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" s="15" t="str">
         <f>request!B19</f>
@@ -6162,9 +6153,9 @@
         <v>構成ファイル</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B21" s="15" t="str">
         <f>request!B21</f>
@@ -6227,9 +6218,9 @@
         <v>ポリモフィズム</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B22" s="15" t="str">
         <f>request!B22</f>
@@ -6286,9 +6277,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B23" s="15" t="str">
         <f>request!B25</f>
@@ -6345,9 +6336,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B24" s="15" t="str">
         <f>request!B26</f>
@@ -6404,9 +6395,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B25" s="15" t="str">
         <f>request!B27</f>
@@ -6463,9 +6454,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B26" s="15" t="str">
         <f>request!B28</f>
@@ -6522,9 +6513,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>request!B29</f>
@@ -6581,9 +6572,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B28" s="15" t="str">
         <f>request!B30</f>
@@ -6638,9 +6629,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>request!B31</f>
@@ -6695,9 +6686,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B30" s="15" t="str">
         <f>request!B32</f>
@@ -6754,9 +6745,9 @@
         <v>修正性</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="248.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="248.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31" s="15" t="str">
         <f>request!B34</f>
@@ -6813,9 +6804,9 @@
         <v>試験性</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B32" s="15" t="str">
         <f>request!B35</f>
@@ -6880,9 +6871,9 @@
         <v>実装とインタフェースの分離</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B33" s="15" t="str">
         <f>request!B36</f>
@@ -6939,9 +6930,9 @@
         <v>試験性</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B34" s="15" t="str">
         <f>request!B37</f>
@@ -7010,9 +7001,9 @@
         <v>特殊なアクセス経路/インタフェース</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B35" s="15" t="str">
         <f>request!B38</f>
@@ -7069,9 +7060,9 @@
         <v>試験性</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B36" s="15" t="str">
         <f>request!B39</f>
@@ -7141,7 +7132,7 @@
         <v>組み込まれた監視</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
       <c r="B37" s="15">
         <f>request!B40</f>
@@ -7196,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
       <c r="B38" s="15">
         <f>request!B41</f>
@@ -7251,7 +7242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15"/>
@@ -7266,7 +7257,7 @@
       <c r="L39" s="15"/>
       <c r="M39" s="15"/>
     </row>
-    <row r="40" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15"/>
@@ -7281,7 +7272,7 @@
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
     </row>
-    <row r="41" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -7296,7 +7287,7 @@
       <c r="L41" s="15"/>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -7311,7 +7302,7 @@
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -7326,7 +7317,7 @@
       <c r="L43" s="15"/>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -7341,7 +7332,7 @@
       <c r="L44" s="15"/>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -7356,7 +7347,7 @@
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15"/>
@@ -7371,7 +7362,7 @@
       <c r="L46" s="15"/>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
@@ -7386,7 +7377,7 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
@@ -7401,7 +7392,7 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -7416,7 +7407,7 @@
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
     </row>
-    <row r="50" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -7431,7 +7422,7 @@
       <c r="L50" s="15"/>
       <c r="M50" s="15"/>
     </row>
-    <row r="51" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -7446,7 +7437,7 @@
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
     </row>
-    <row r="52" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -7461,7 +7452,7 @@
       <c r="L52" s="15"/>
       <c r="M52" s="15"/>
     </row>
-    <row r="53" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -7476,7 +7467,7 @@
       <c r="L53" s="15"/>
       <c r="M53" s="15"/>
     </row>
-    <row r="54" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15"/>
@@ -7491,7 +7482,7 @@
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
     </row>
-    <row r="55" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15"/>
@@ -7506,7 +7497,7 @@
       <c r="L55" s="15"/>
       <c r="M55" s="15"/>
     </row>
-    <row r="56" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15"/>
@@ -7521,7 +7512,7 @@
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
     </row>
-    <row r="57" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -7536,7 +7527,7 @@
       <c r="L57" s="15"/>
       <c r="M57" s="15"/>
     </row>
-    <row r="58" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15"/>
@@ -7551,7 +7542,7 @@
       <c r="L58" s="15"/>
       <c r="M58" s="15"/>
     </row>
-    <row r="59" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -7566,7 +7557,7 @@
       <c r="L59" s="15"/>
       <c r="M59" s="15"/>
     </row>
-    <row r="60" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15"/>
@@ -7581,7 +7572,7 @@
       <c r="L60" s="15"/>
       <c r="M60" s="15"/>
     </row>
-    <row r="61" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
@@ -7596,7 +7587,7 @@
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
     </row>
-    <row r="62" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15"/>
@@ -7611,7 +7602,7 @@
       <c r="L62" s="15"/>
       <c r="M62" s="15"/>
     </row>
-    <row r="63" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
@@ -7626,7 +7617,7 @@
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
     </row>
-    <row r="64" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
       <c r="B64" s="15"/>
       <c r="C64" s="15"/>
@@ -7641,7 +7632,7 @@
       <c r="L64" s="15"/>
       <c r="M64" s="15"/>
     </row>
-    <row r="65" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
       <c r="B65" s="15"/>
       <c r="C65" s="15"/>
@@ -7656,7 +7647,7 @@
       <c r="L65" s="15"/>
       <c r="M65" s="15"/>
     </row>
-    <row r="66" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -7671,7 +7662,7 @@
       <c r="L66" s="15"/>
       <c r="M66" s="15"/>
     </row>
-    <row r="67" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
@@ -7686,7 +7677,7 @@
       <c r="L67" s="15"/>
       <c r="M67" s="15"/>
     </row>
-    <row r="68" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15"/>
@@ -7701,7 +7692,7 @@
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
     </row>
-    <row r="69" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -7716,7 +7707,7 @@
       <c r="L69" s="15"/>
       <c r="M69" s="15"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15"/>
@@ -7731,7 +7722,7 @@
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15"/>
@@ -7746,7 +7737,7 @@
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -7761,7 +7752,7 @@
       <c r="L72" s="15"/>
       <c r="M72" s="15"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
@@ -7776,7 +7767,7 @@
       <c r="L73" s="15"/>
       <c r="M73" s="15"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15"/>
@@ -7791,7 +7782,7 @@
       <c r="L74" s="15"/>
       <c r="M74" s="15"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>

--- a/保守性_DB.xlsx
+++ b/保守性_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kshir\OneDrive\ドキュメント\中島研\agile\quality-digital-twin-dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABAD98B0-82FE-4D42-A4F2-D1C373427279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034851B3-5372-4BD0-AD4B-F3B8138FDBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="11520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SQuaRE" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="440">
   <si>
     <t>id</t>
   </si>
@@ -2417,6 +2417,10 @@
       <t>シュダン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -2572,7 +2576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2648,6 +2652,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3233,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
@@ -3788,11 +3801,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3809,7 +3822,7 @@
     <col min="10" max="10" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3840,8 +3853,11 @@
       <c r="J1" s="21" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>97</v>
       </c>
@@ -3869,8 +3885,11 @@
       <c r="I2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>98</v>
       </c>
@@ -3898,8 +3917,11 @@
       <c r="I3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>102</v>
       </c>
@@ -3927,8 +3949,11 @@
       <c r="I4" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
@@ -3956,8 +3981,11 @@
       <c r="I5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>112</v>
       </c>
@@ -3985,8 +4013,11 @@
       <c r="I6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>116</v>
       </c>
@@ -4014,8 +4045,11 @@
       <c r="I7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K7" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>122</v>
       </c>
@@ -4043,8 +4077,11 @@
       <c r="I8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>127</v>
       </c>
@@ -4072,8 +4109,11 @@
       <c r="I9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>132</v>
       </c>
@@ -4101,8 +4141,11 @@
       <c r="I10" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>138</v>
       </c>
@@ -4130,8 +4173,11 @@
       <c r="I11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>141</v>
       </c>
@@ -4159,8 +4205,11 @@
       <c r="I12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>145</v>
       </c>
@@ -4188,8 +4237,11 @@
       <c r="I13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>151</v>
       </c>
@@ -4217,8 +4269,11 @@
       <c r="I14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>157</v>
       </c>
@@ -4246,8 +4301,11 @@
       <c r="I15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>162</v>
       </c>
@@ -4275,8 +4333,11 @@
       <c r="I16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>165</v>
       </c>
@@ -4304,8 +4365,11 @@
       <c r="I17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>169</v>
       </c>
@@ -4333,8 +4397,11 @@
       <c r="I18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>175</v>
       </c>
@@ -4362,8 +4429,11 @@
       <c r="I19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>180</v>
       </c>
@@ -4394,8 +4464,11 @@
       <c r="J20" s="4" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>185</v>
       </c>
@@ -4426,8 +4499,11 @@
       <c r="J21" s="4" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>189</v>
       </c>
@@ -4455,8 +4531,11 @@
       <c r="I22" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>193</v>
       </c>
@@ -4484,8 +4563,11 @@
       <c r="I23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K23" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>197</v>
       </c>
@@ -4513,8 +4595,11 @@
       <c r="I24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K24" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>201</v>
       </c>
@@ -4542,8 +4627,11 @@
       <c r="I25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>207</v>
       </c>
@@ -4571,8 +4659,11 @@
       <c r="I26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K26" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>213</v>
       </c>
@@ -4600,8 +4691,11 @@
       <c r="I27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K27" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>217</v>
       </c>
@@ -4629,8 +4723,11 @@
       <c r="I28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K28" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>218</v>
       </c>
@@ -4658,8 +4755,11 @@
       <c r="I29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>219</v>
       </c>
@@ -4687,8 +4787,11 @@
       <c r="I30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K30" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>307</v>
       </c>
@@ -4716,8 +4819,11 @@
       <c r="I31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K31" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>324</v>
       </c>
@@ -4745,8 +4851,11 @@
       <c r="I32" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K32" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>325</v>
       </c>
@@ -4774,8 +4883,11 @@
       <c r="I33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K33" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>326</v>
       </c>
@@ -4803,8 +4915,11 @@
       <c r="I34" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K34" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>409</v>
       </c>
@@ -4832,8 +4947,11 @@
       <c r="I35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K35" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>410</v>
       </c>
@@ -4861,8 +4979,11 @@
       <c r="I36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K36" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>411</v>
       </c>
@@ -4890,8 +5011,11 @@
       <c r="I37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K37" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>412</v>
       </c>
@@ -4922,8 +5046,11 @@
       <c r="J38" s="4" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K38" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>413</v>
       </c>
@@ -4950,6 +5077,9 @@
       </c>
       <c r="I39" s="5">
         <v>1</v>
+      </c>
+      <c r="K39" s="27">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
